--- a/Data/Additional Analyses/Analysis 5.2.1/Unique Questions.xlsx
+++ b/Data/Additional Analyses/Analysis 5.2.1/Unique Questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConvRS\Conversationa Retrieval System\IS Journal paper\Online Material\User Studies Data\Study-2a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConvRS\Conversationa Retrieval System\IS Journal paper\CRB-CRS Online Material\CRB-CRS\Data\Additional Analyses\Analysis 5.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Unique Trials" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique Trials'!$A$1:$I$35</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
   <si>
     <t>kgsf_rating</t>
   </si>
@@ -534,30 +533,6 @@
   </si>
   <si>
     <t>['Conversation:68', 'CHAT-BOT: Hello, Can I help you find a movie?\n', 'USER: Hello!  I would like to find a suspenseful, but clean family friendly movie.\n', 'CHAT-BOT: You might like "The Illusionist  (2006)" it is pg-13 however\n', 'USER: We have not seen that.  We enjoyed "Star Wars: Episode VIII â€“ The Last Jedi (2017)"\n', 'CHAT-BOT: you could also try "2001: A Space Odyssey  (1968)" for something G Rated\n', 'USER: We have not seen that one either.  Is it good?\n']</t>
-  </si>
-  <si>
-    <t>KGSF</t>
-  </si>
-  <si>
-    <t>KBRD</t>
-  </si>
-  <si>
-    <t>CRB-CRS</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std. deviation</t>
-  </si>
-  <si>
-    <t>Total Cases</t>
-  </si>
-  <si>
-    <t>Unique Cases</t>
-  </si>
-  <si>
-    <t>Rating</t>
   </si>
   <si>
     <t xml:space="preserve">I hope you enjoy them !_x000D_
@@ -628,25 +603,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,1119 +625,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11520546495987428"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.83491166291353691"/>
-          <c:h val="0.69239904056847978"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Results!$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KGSF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Results!$I$4:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Results!$J$4:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FA4-490A-A09F-18B9CDE1C1AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Results!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KBRD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Results!$I$4:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Results!$K$4:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FA4-490A-A09F-18B9CDE1C1AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Results!$L$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CRB-CRS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Results!$I$4:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Results!$L$4:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7FA4-490A-A09F-18B9CDE1C1AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="475632056"/>
-        <c:axId val="475632384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="475632056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="475632384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="475632384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="475632056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.51315122759180276"/>
-          <c:y val="0.19282087562211594"/>
-          <c:w val="0.12038831038634566"/>
-          <c:h val="0.16584882663622821"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2600,32 +1450,32 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="D20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="3">
         <v>38</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>238.13818907737729</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>148</v>
+      <c r="I20" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3076,178 +1926,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.7647058823529411</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.2941176470588234</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.9411764705882355</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>28</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.4154364018254075</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.5054686931846737</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.0273087762689987</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>14</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.6145833333333335</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3.7395833333333335</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.4021545301388463</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.4695993407123664</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.1387565556586516</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>13</v>
-      </c>
-      <c r="K8">
-        <v>23</v>
-      </c>
-      <c r="L8">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>